--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7CD0E-FAF8-4633-B8B7-FF1554B3E38F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148EEDA-F8F4-42ED-B19A-5EE5A2E0D5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>NGC-3477/T1845</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2642</t>
   </si>
 </sst>
 </file>
@@ -719,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FD6019-B373-4024-96F6-9FD535B217DB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,4 +827,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9CD1-5E8E-4C59-BA6C-B2B76CC1D1F0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148EEDA-F8F4-42ED-B19A-5EE5A2E0D5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E46518-8FA3-4A93-87EF-D4EA6B5E42D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>NGC-3476/T2642</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2435</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -727,7 +734,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9CD1-5E8E-4C59-BA6C-B2B76CC1D1F0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -934,4 +941,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAE763-687D-4325-9DB1-A11BA75A4232}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E46518-8FA3-4A93-87EF-D4EA6B5E42D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8DF30-F322-43E1-9BC8-9556E47B5896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236</t>
   </si>
 </sst>
 </file>
@@ -947,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAE763-687D-4325-9DB1-A11BA75A4232}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,4 +1055,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1945547D-BA3A-41BE-9624-9232D0AD4F6B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8DF30-F322-43E1-9BC8-9556E47B5896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237EA84-ADEC-49FE-80D4-4F29251DD707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>NGC-2930/T3236</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2219</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1945547D-BA3A-41BE-9624-9232D0AD4F6B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,4 +1169,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB645691-64DE-4EDD-8393-41F142FC88A3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237EA84-ADEC-49FE-80D4-4F29251DD707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55077D-B61A-4928-B1EF-B399F1CDA97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2045</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB645691-64DE-4EDD-8393-41F142FC88A3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,4 +1273,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADFAF09-2A0B-4307-BA3E-84FB523BEAEC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55077D-B61A-4928-B1EF-B399F1CDA97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83A9CF-59F6-451B-BF26-55CF7093D8F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>NGC-3103/T2045</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3310</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADFAF09-2A0B-4307-BA3E-84FB523BEAEC}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,4 +1377,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC700C56-064D-4905-A03B-427B341D7F97}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83A9CF-59F6-451B-BF26-55CF7093D8F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E44E6-4BF5-43F8-BC27-F2F7D909AA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D9CD1-5E8E-4C59-BA6C-B2B76CC1D1F0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,21 +943,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -973,10 +963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAE763-687D-4325-9DB1-A11BA75A4232}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,21 +1040,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1383,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC700C56-064D-4905-A03B-427B341D7F97}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E44E6-4BF5-43F8-BC27-F2F7D909AA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A464E81-C860-46C2-AFEB-69D778E8FC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>NGC-3191/T3310</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2473</t>
   </si>
 </sst>
 </file>
@@ -660,6 +667,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB3911-08BF-40F3-97E2-CF2FA9D724C0}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98E3562-639A-47CD-BC84-631A06995EB1}">
   <dimension ref="A1:D10"/>
@@ -965,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAE763-687D-4325-9DB1-A11BA75A4232}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1167,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A464E81-C860-46C2-AFEB-69D778E8FC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76E6D0-5E2B-4C48-9BCB-2705BE8BDB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>NGC-3139/T2473</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3205</t>
   </si>
 </sst>
 </file>
@@ -671,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB3911-08BF-40F3-97E2-CF2FA9D724C0}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,6 +726,103 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91D110-7121-459C-AB86-24E2E30587EB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76E6D0-5E2B-4C48-9BCB-2705BE8BDB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300E819-E8E3-4C8E-9A2F-224B26622EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -148,6 +151,21 @@
   </si>
   <si>
     <t>NGC-4119/T3205</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2188</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2295</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2783</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -775,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91D110-7121-459C-AB86-24E2E30587EB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,6 +841,307 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B55B61-9FB7-4350-AF82-30A94FE98D6D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1448CE-94C2-4578-95ED-28DE425B7685}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B540278-C790-4D33-A4CC-41DD9C395FF0}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300E819-E8E3-4C8E-9A2F-224B26622EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582ECDD-0BCD-4D93-B7E1-98AAC2D234B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +169,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B540278-C790-4D33-A4CC-41DD9C395FF0}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1149,6 +1170,294 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25715CAC-A71C-488B-832C-1BDC59794EB3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088194DF-C914-48E4-8E09-BA35D25B26DA}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91837FA9-A550-432C-A3BF-757242933602}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582ECDD-0BCD-4D93-B7E1-98AAC2D234B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440E5C0-DFD6-4ED3-9484-A3481B6BC18A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +189,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3071</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3033</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91837FA9-A550-432C-A3BF-757242933602}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1458,6 +1472,200 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FE65AE-E1A8-48E8-B6CD-288674B392E4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD69A65-039B-4227-891C-A05A4B48948A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_P_Panels.xlsx
+++ b/Test Data/Gallery_Loops_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440E5C0-DFD6-4ED3-9484-A3481B6BC18A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA2B87-27E6-4883-8222-92A7E4EC6CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3361/T3365</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FE65AE-E1A8-48E8-B6CD-288674B392E4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1801,6 +1808,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C3088C-3D9D-46D2-A80F-93B20C56A3A9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FD6019-B373-4024-96F6-9FD535B217DB}">
   <dimension ref="A1:D12"/>
